--- a/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
+++ b/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Web_POS\Billing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="125725"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192" count="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>TC_Id</t>
   </si>
@@ -70,10 +75,46 @@
     <t>group</t>
   </si>
   <si>
+    <t>new_category_admin</t>
+  </si>
+  <si>
+    <t>search_store</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_department</t>
+  </si>
+  <si>
+    <t>product_brand</t>
+  </si>
+  <si>
+    <t>product_category</t>
+  </si>
+  <si>
+    <t>product_description</t>
+  </si>
+  <si>
+    <t>product_mrp</t>
+  </si>
+  <si>
+    <t>product_rsp</t>
+  </si>
+  <si>
+    <t>product_special_price</t>
+  </si>
+  <si>
+    <t>uom</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
     <t>PC_1</t>
   </si>
   <si>
-    <t>307220324WWP</t>
+    <t>307220524Dzl</t>
   </si>
   <si>
     <t>zwshashank.agrawal@teampureplay.com</t>
@@ -82,495 +123,36 @@
     <t>MrunalJagtap</t>
   </si>
   <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>PC_2</t>
+  </si>
+  <si>
+    <t>PC_3</t>
+  </si>
+  <si>
+    <t>PC_4</t>
+  </si>
+  <si>
+    <t>Body Scrub</t>
+  </si>
+  <si>
     <t>Index9QA</t>
   </si>
   <si>
-    <t>QBSB-any___qty-Flat-Percentage</t>
-  </si>
-  <si>
-    <t>8906118410781 : 1</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>QBSB-any___qty-flat-Amount</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>QBSB-any___qty-Flat-Fixed-Each</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>QBSB-any____qty-Flat-Fixed-All</t>
-  </si>
-  <si>
-    <t>8906118410781 : 2</t>
-  </si>
-  <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>QBSB-any___qty-Buypool-Free</t>
-  </si>
-  <si>
-    <t>TC_06</t>
-  </si>
-  <si>
-    <t>QBSB-any____qty-Getpool-Specificqty-Free</t>
-  </si>
-  <si>
-    <t>8906118412761 : 1, 8906118412662 : 1, 8906118412556 : 1</t>
-  </si>
-  <si>
-    <t>TC_07</t>
-  </si>
-  <si>
-    <t>QBSB-any____qty-Getpool-Anyqty-Free</t>
-  </si>
-  <si>
-    <t>8906118412761 : 1</t>
-  </si>
-  <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>QBSB-Specificqty-Flat-percentage</t>
-  </si>
-  <si>
-    <t>8906118410781 : 2,  8906118412556 : 2</t>
-  </si>
-  <si>
-    <t>TC_09</t>
-  </si>
-  <si>
-    <t>QBSB-Specificqty-Flat-rupees</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>QBSB-Anyqty-Flat-percentage</t>
-  </si>
-  <si>
-    <t>8906118410781 : 1, 8906118412761 : 1</t>
-  </si>
-  <si>
-    <t>TC_11</t>
-  </si>
-  <si>
-    <t>QBSB-Any___qty-Buypool-Flat-percentage</t>
-  </si>
-  <si>
-    <t>8906118410781 : 3</t>
-  </si>
-  <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t>QBSB-Any____qty-Buypool-Flat-Rupees</t>
-  </si>
-  <si>
-    <t>TC_13</t>
-  </si>
-  <si>
-    <t>QBSB-Any____qty-Buy Pool-fixed-each</t>
-  </si>
-  <si>
-    <t>8906118410781 : 5</t>
-  </si>
-  <si>
-    <t>TC_14</t>
-  </si>
-  <si>
-    <t>QBSB-Any Qty-Buy pool-Fixed-all</t>
-  </si>
-  <si>
-    <t>TC_15</t>
-  </si>
-  <si>
-    <t>QBSB-Any Qty-get pool-spf-Rupees</t>
-  </si>
-  <si>
-    <t>TC_16</t>
-  </si>
-  <si>
-    <t>QBSB-Any Qty-get pool-spf-Fixed-each</t>
-  </si>
-  <si>
-    <t>8906118412761 : 1, 8906118412556 : 1</t>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>QBSB-Any Get pool-spf-Fixed-all</t>
-  </si>
-  <si>
-    <t>8906118412556 : 1</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>QBSB-Specificity-Flat-fixed-all</t>
-  </si>
-  <si>
-    <t>8906118410781 : 2,  8906118412556 : 3</t>
-  </si>
-  <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>QBSB-Specificity-Flat-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_20</t>
-  </si>
-  <si>
-    <t>QBSB-Any____Qty-get pool-any-perc</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t>QBSB-Any____Qty-get pool-any-rupees</t>
-  </si>
-  <si>
-    <t>TC_22</t>
-  </si>
-  <si>
-    <t>QBSB-Any____Qty-get pool-any-fixed-each</t>
-  </si>
-  <si>
-    <t>8906118412761 : 1, 8906118412556 : 2</t>
-  </si>
-  <si>
-    <t>TC_23</t>
-  </si>
-  <si>
-    <t>QBSB-Any____Qty-get pool-any-fixed-all</t>
-  </si>
-  <si>
-    <t>TC_24</t>
-  </si>
-  <si>
-    <t>QBSB-Any____Qty-get pool-spf-perc</t>
-  </si>
-  <si>
-    <t>TC_25</t>
-  </si>
-  <si>
-    <t>QBSB-Any qty-flat-rupees</t>
-  </si>
-  <si>
-    <t>TC_26</t>
-  </si>
-  <si>
-    <t>QBSB-Any qty-flat-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_27</t>
-  </si>
-  <si>
-    <t>QBSB-Any qty-flat-fixed-all</t>
-  </si>
-  <si>
-    <t>TC_28</t>
-  </si>
-  <si>
-    <t>QBSLB-flat-free</t>
-  </si>
-  <si>
-    <t>TC_29</t>
-  </si>
-  <si>
-    <t>QBSLB-flat-perc</t>
-  </si>
-  <si>
-    <t>8906118410781 : 4</t>
-  </si>
-  <si>
-    <t>TC_30</t>
-  </si>
-  <si>
-    <t>QBSlB-flat-rupee</t>
-  </si>
-  <si>
-    <t>TC_31</t>
-  </si>
-  <si>
-    <t>QBSlB-flat-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_32</t>
-  </si>
-  <si>
-    <t>QBSlB-flat-fixed-all</t>
-  </si>
-  <si>
-    <t>TC_33</t>
-  </si>
-  <si>
-    <t>QBSlB-Buy-100 disc</t>
-  </si>
-  <si>
-    <t>TC_34</t>
-  </si>
-  <si>
-    <t>QBSlB-Buy-perc</t>
-  </si>
-  <si>
-    <t>TC_35</t>
-  </si>
-  <si>
-    <t>QBSlB-Buy-rupee</t>
-  </si>
-  <si>
-    <t>TC_36</t>
-  </si>
-  <si>
-    <t>QBSlB-Buy-fixed-all</t>
-  </si>
-  <si>
-    <t>TC_37</t>
-  </si>
-  <si>
-    <t>QBSlB-Buy-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_38</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-100 % disc</t>
-  </si>
-  <si>
-    <t>TC_39</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-perc</t>
-  </si>
-  <si>
-    <t>TC_40</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-rupee</t>
-  </si>
-  <si>
-    <t>TC_41</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_42</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-fixed-all</t>
-  </si>
-  <si>
-    <t>8906118412761 : 4</t>
-  </si>
-  <si>
-    <t>TC_43</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-unit 100% disc</t>
-  </si>
-  <si>
-    <t>TC_44</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-unit perc</t>
-  </si>
-  <si>
-    <t>TC_45</t>
-  </si>
-  <si>
-    <t>TC_46</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-unit fixed-each</t>
-  </si>
-  <si>
-    <t>TC_47</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-unit fixed-all</t>
-  </si>
-  <si>
-    <t>8906118412761 : 2</t>
-  </si>
-  <si>
-    <t>TC_48</t>
-  </si>
-  <si>
-    <t>VBSLB-flat -100% disc</t>
-  </si>
-  <si>
-    <t>TC_49</t>
-  </si>
-  <si>
-    <t>VBSLB-flat-percent</t>
-  </si>
-  <si>
-    <t>TC_50</t>
-  </si>
-  <si>
-    <t>VBSLB-flat-rupees</t>
-  </si>
-  <si>
-    <t>TC_51</t>
-  </si>
-  <si>
-    <t>VBSLB-flat-fixed each</t>
-  </si>
-  <si>
-    <t>TC_52</t>
-  </si>
-  <si>
-    <t>VBSLB-flat-fixed all</t>
-  </si>
-  <si>
-    <t>TC_53</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-100</t>
-  </si>
-  <si>
-    <t>TC_54</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-perc</t>
-  </si>
-  <si>
-    <t>TC_55</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-rupee</t>
-  </si>
-  <si>
-    <t>TC_56</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_57</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-fixed-all </t>
-  </si>
-  <si>
-    <t>TC_58</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-unit- 100</t>
-  </si>
-  <si>
-    <t>TC_59</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-unit- perc</t>
-  </si>
-  <si>
-    <t>TC_60</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-unit- rupee</t>
-  </si>
-  <si>
-    <t>TC_61</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-unit- fixed-each</t>
-  </si>
-  <si>
-    <t>TC_62</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-unit- fixed-all</t>
-  </si>
-  <si>
-    <t>307220524Dzl</t>
-  </si>
-  <si>
-    <t>PC_2</t>
-  </si>
-  <si>
-    <t>PC_3</t>
-  </si>
-  <si>
-    <t>PC_4</t>
-  </si>
-  <si>
-    <t>new_category_admin</t>
-  </si>
-  <si>
-    <t>Body Scrub</t>
-  </si>
-  <si>
-    <t>search_store</t>
-  </si>
-  <si>
-    <t> zwnishant@ekaani.com</t>
-  </si>
-  <si>
     <t>PC_5</t>
   </si>
   <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>product_department</t>
-  </si>
-  <si>
-    <t>product_brand</t>
-  </si>
-  <si>
-    <t>product_category</t>
-  </si>
-  <si>
-    <t>product_description</t>
-  </si>
-  <si>
-    <t>product_mrp</t>
-  </si>
-  <si>
-    <t>product_rsp</t>
-  </si>
-  <si>
-    <t>product_special_price</t>
-  </si>
-  <si>
-    <t>uom</t>
-  </si>
-  <si>
-    <t>barcode</t>
+    <t>Plum Body</t>
+  </si>
+  <si>
+    <t>i9qa</t>
   </si>
   <si>
     <t>dummy</t>
   </si>
   <si>
-    <t>i9qa</t>
-  </si>
-  <si>
     <t>ADFGHJKZXCVBN</t>
   </si>
   <si>
@@ -580,9 +162,6 @@
     <t>123dummy</t>
   </si>
   <si>
-    <t>Plum Body</t>
-  </si>
-  <si>
     <t>PC_6</t>
   </si>
   <si>
@@ -590,26 +169,42 @@
   </si>
   <si>
     <t>PC_7</t>
+  </si>
+  <si>
+    <t>PC_8</t>
+  </si>
+  <si>
+    <t>307260624WoJ</t>
+  </si>
+  <si>
+    <t>usertwo_p1</t>
+  </si>
+  <si>
+    <t>Alexa67 : 1</t>
+  </si>
+  <si>
+    <t>PC_9</t>
+  </si>
+  <si>
+    <t>PC_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,42 +212,17 @@
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
         <fgColor indexed="64"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -665,54 +235,37 @@
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ConditionalFormatStyle" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
-  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
@@ -914,38 +467,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView topLeftCell="L45" view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R66" sqref="R66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.63" customHeight="true" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.9296875" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.390625" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="9" width="19.09765625" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.70703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.59765625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" customWidth="1"/>
-    <col min="15" max="17" width="19.09765625" customWidth="1"/>
-    <col min="18" max="19" width="29.45703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.20703125" customWidth="1"/>
+    <col min="2" max="2" width="23.57031" customWidth="1"/>
+    <col min="3" max="3" width="43.92969" customWidth="1"/>
+    <col min="4" max="4" width="20.17969" customWidth="1"/>
+    <col min="5" max="5" width="18.57031" customWidth="1"/>
+    <col min="6" max="6" width="18.39063" customWidth="1"/>
+    <col min="7" max="7" width="16.77734" customWidth="1"/>
+    <col min="8" max="9" width="19.09766" customWidth="1"/>
+    <col min="10" max="10" width="20.17969" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.70703" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.59766" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.14063" customWidth="1"/>
+    <col min="14" max="14" width="15.17969" customWidth="1"/>
+    <col min="15" max="17" width="19.09766" customWidth="1"/>
+    <col min="18" max="19" width="29.45703" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.20703" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="18.9296875" customWidth="1"/>
+    <col min="22" max="22" width="18.92969" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1001,57 +553,57 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="33.75" customHeight="1">
+    <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2">
         <v>123456</v>
@@ -1063,87 +615,87 @@
         <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
@@ -1155,87 +707,87 @@
         <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
@@ -1247,87 +799,87 @@
         <v>500</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>123456</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
         <v>123456</v>
@@ -1339,87 +891,87 @@
         <v>500</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
@@ -1431,55 +983,55 @@
         <v>500</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="W6" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X6" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="Z6">
         <v>500</v>
@@ -1491,27 +1043,27 @@
         <v>100</v>
       </c>
       <c r="AC6" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="AD6" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
@@ -1523,87 +1075,87 @@
         <v>500</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -1615,75 +1167,348 @@
         <v>500</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="9" ht="12.75"/>
-    <row r="10" ht="12.75"/>
-    <row r="11" ht="12.75"/>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>500</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>500</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>500</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="12" ht="12.75"/>
     <row r="13" ht="12.75"/>
     <row r="14" ht="12.75"/>
@@ -1713,8 +1538,6 @@
     <row r="38" ht="12.75"/>
     <row r="39" ht="12.75"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
+++ b/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192" count="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196" count="225">
   <si>
     <t>TC_Id</t>
   </si>
@@ -100,7 +100,7 @@
     <t>Pune</t>
   </si>
   <si>
-    <t>Dummy</t>
+    <t>Ranger Alex</t>
   </si>
   <si>
     <t>TC_02</t>
@@ -590,6 +590,18 @@
   </si>
   <si>
     <t>PC_7</t>
+  </si>
+  <si>
+    <t>307260624P3E</t>
+  </si>
+  <si>
+    <t>userone_p1</t>
+  </si>
+  <si>
+    <t>price_book_name</t>
+  </si>
+  <si>
+    <t>Body Oil</t>
   </si>
 </sst>
 </file>
@@ -918,7 +930,7 @@
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView topLeftCell="L45" view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="R66" sqref="R66"/>
@@ -945,7 +957,7 @@
     <col min="22" max="22" width="18.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" customHeight="1">
+    <row r="1" spans="1:31" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,13 +1048,16 @@
       <c r="AD1" t="s">
         <v>182</v>
       </c>
+      <c r="AE1" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" ht="33.75" customHeight="1">
+    <row r="2" spans="1:31" ht="33.75" customHeight="1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1051,7 +1066,7 @@
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F2" s="2">
         <v>123456</v>
@@ -1128,13 +1143,16 @@
       <c r="AD2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AE2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>165</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1143,7 +1161,7 @@
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
@@ -1220,13 +1238,16 @@
       <c r="AD3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AE3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1235,7 +1256,7 @@
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
@@ -1312,13 +1333,16 @@
       <c r="AD4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AE4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1327,7 +1351,7 @@
         <v>123456</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F5" s="2">
         <v>123456</v>
@@ -1404,13 +1428,16 @@
       <c r="AD5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AE5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1419,7 +1446,7 @@
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
@@ -1496,13 +1523,16 @@
       <c r="AD6" t="s">
         <v>187</v>
       </c>
+      <c r="AE6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>189</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -1511,7 +1541,7 @@
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
@@ -1588,13 +1618,16 @@
       <c r="AD7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AE7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>191</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -1603,7 +1636,7 @@
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -1627,7 +1660,7 @@
         <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>25</v>
@@ -1645,7 +1678,7 @@
         <v>25</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="T8" t="s">
         <v>22</v>
@@ -1679,6 +1712,9 @@
       </c>
       <c r="AD8" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="12.75"/>
@@ -1694,7 +1730,7 @@
     <row r="19" ht="12.75"/>
     <row r="20" ht="12.75"/>
     <row r="21" ht="12.75"/>
-    <row r="22" ht="12.75"/>
+    <row r="22"/>
     <row r="23" ht="12.75"/>
     <row r="24" ht="12.75"/>
     <row r="25" ht="12.75"/>

--- a/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
+++ b/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196" count="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199" count="309">
   <si>
     <t>TC_Id</t>
   </si>
@@ -602,6 +602,15 @@
   </si>
   <si>
     <t>Body Oil</t>
+  </si>
+  <si>
+    <t>PC_8</t>
+  </si>
+  <si>
+    <t>PC_9</t>
+  </si>
+  <si>
+    <t>PC_10</t>
   </si>
 </sst>
 </file>
@@ -656,7 +665,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="64"/>
@@ -675,8 +684,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -696,13 +718,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
@@ -714,6 +736,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1717,9 +1742,291 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="12.75"/>
-    <row r="10" ht="12.75"/>
-    <row r="11" ht="12.75"/>
+    <row r="9" spans="1:31">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>500</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>500</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>500</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="12" ht="12.75"/>
     <row r="13" ht="12.75"/>
     <row r="14" ht="12.75"/>

--- a/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
+++ b/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199" count="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201" count="299">
   <si>
     <t>TC_Id</t>
   </si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t>PC_10</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -691,14 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -720,11 +719,11 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
@@ -1937,7 +1936,7 @@
         <v>198</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -1946,7 +1945,7 @@
         <v>123456</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
@@ -1988,13 +1987,13 @@
         <v>25</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>25</v>
+      <c r="U11" s="1">
+        <v>11307101311</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>25</v>

--- a/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
+++ b/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201" count="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202" count="301">
   <si>
     <t>TC_Id</t>
   </si>
@@ -616,7 +616,10 @@
     <t>Copy</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Carry </t>
+  </si>
+  <si>
+    <t>Carry bag</t>
   </si>
 </sst>
 </file>
@@ -1992,8 +1995,8 @@
       <c r="T11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U11" s="1">
-        <v>11307101311</v>
+      <c r="U11" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>25</v>

--- a/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
+++ b/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Web_POS\Billing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="125725"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202" count="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>TC_Id</t>
   </si>
@@ -70,553 +75,130 @@
     <t>group</t>
   </si>
   <si>
+    <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>new_category_admin</t>
+  </si>
+  <si>
+    <t>search_store</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_department</t>
+  </si>
+  <si>
+    <t>product_brand</t>
+  </si>
+  <si>
+    <t>product_category</t>
+  </si>
+  <si>
+    <t>product_description</t>
+  </si>
+  <si>
+    <t>product_mrp</t>
+  </si>
+  <si>
+    <t>product_rsp</t>
+  </si>
+  <si>
+    <t>product_special_price</t>
+  </si>
+  <si>
+    <t>uom</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>price_book_name</t>
+  </si>
+  <si>
     <t>PC_1</t>
   </si>
   <si>
-    <t>307220324WWP</t>
+    <t>307260624P3E</t>
   </si>
   <si>
     <t>zwshashank.agrawal@teampureplay.com</t>
   </si>
   <si>
+    <t>userone_p1</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>PC_2</t>
+  </si>
+  <si>
+    <t>PC_3</t>
+  </si>
+  <si>
+    <t>PC_4</t>
+  </si>
+  <si>
+    <t>Body Scrub</t>
+  </si>
+  <si>
+    <t>Index9QA</t>
+  </si>
+  <si>
+    <t>PC_5</t>
+  </si>
+  <si>
+    <t>Plum Body</t>
+  </si>
+  <si>
+    <t>i9qa</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>ADFGHJKZXCVBN</t>
+  </si>
+  <si>
+    <t>Piece-Piece-1</t>
+  </si>
+  <si>
+    <t>123dummy</t>
+  </si>
+  <si>
+    <t>PC_6</t>
+  </si>
+  <si>
+    <t>Alexa67 : 2</t>
+  </si>
+  <si>
+    <t>PC_7</t>
+  </si>
+  <si>
+    <t>Body Oil</t>
+  </si>
+  <si>
+    <t>Ranger Alex</t>
+  </si>
+  <si>
+    <t>PC_8</t>
+  </si>
+  <si>
+    <t>PC_9</t>
+  </si>
+  <si>
+    <t>PC_10</t>
+  </si>
+  <si>
+    <t>307220524Dzl</t>
+  </si>
+  <si>
     <t>MrunalJagtap</t>
   </si>
   <si>
-    <t>Index9QA</t>
-  </si>
-  <si>
-    <t>QBSB-any___qty-Flat-Percentage</t>
-  </si>
-  <si>
-    <t>8906118410781 : 1</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Ranger Alex</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>QBSB-any___qty-flat-Amount</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>QBSB-any___qty-Flat-Fixed-Each</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>QBSB-any____qty-Flat-Fixed-All</t>
-  </si>
-  <si>
-    <t>8906118410781 : 2</t>
-  </si>
-  <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>QBSB-any___qty-Buypool-Free</t>
-  </si>
-  <si>
-    <t>TC_06</t>
-  </si>
-  <si>
-    <t>QBSB-any____qty-Getpool-Specificqty-Free</t>
-  </si>
-  <si>
-    <t>8906118412761 : 1, 8906118412662 : 1, 8906118412556 : 1</t>
-  </si>
-  <si>
-    <t>TC_07</t>
-  </si>
-  <si>
-    <t>QBSB-any____qty-Getpool-Anyqty-Free</t>
-  </si>
-  <si>
-    <t>8906118412761 : 1</t>
-  </si>
-  <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>QBSB-Specificqty-Flat-percentage</t>
-  </si>
-  <si>
-    <t>8906118410781 : 2,  8906118412556 : 2</t>
-  </si>
-  <si>
-    <t>TC_09</t>
-  </si>
-  <si>
-    <t>QBSB-Specificqty-Flat-rupees</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>QBSB-Anyqty-Flat-percentage</t>
-  </si>
-  <si>
-    <t>8906118410781 : 1, 8906118412761 : 1</t>
-  </si>
-  <si>
-    <t>TC_11</t>
-  </si>
-  <si>
-    <t>QBSB-Any___qty-Buypool-Flat-percentage</t>
-  </si>
-  <si>
-    <t>8906118410781 : 3</t>
-  </si>
-  <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t>QBSB-Any____qty-Buypool-Flat-Rupees</t>
-  </si>
-  <si>
-    <t>TC_13</t>
-  </si>
-  <si>
-    <t>QBSB-Any____qty-Buy Pool-fixed-each</t>
-  </si>
-  <si>
-    <t>8906118410781 : 5</t>
-  </si>
-  <si>
-    <t>TC_14</t>
-  </si>
-  <si>
-    <t>QBSB-Any Qty-Buy pool-Fixed-all</t>
-  </si>
-  <si>
-    <t>TC_15</t>
-  </si>
-  <si>
-    <t>QBSB-Any Qty-get pool-spf-Rupees</t>
-  </si>
-  <si>
-    <t>TC_16</t>
-  </si>
-  <si>
-    <t>QBSB-Any Qty-get pool-spf-Fixed-each</t>
-  </si>
-  <si>
-    <t>8906118412761 : 1, 8906118412556 : 1</t>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>QBSB-Any Get pool-spf-Fixed-all</t>
-  </si>
-  <si>
-    <t>8906118412556 : 1</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>QBSB-Specificity-Flat-fixed-all</t>
-  </si>
-  <si>
-    <t>8906118410781 : 2,  8906118412556 : 3</t>
-  </si>
-  <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>QBSB-Specificity-Flat-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_20</t>
-  </si>
-  <si>
-    <t>QBSB-Any____Qty-get pool-any-perc</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t>QBSB-Any____Qty-get pool-any-rupees</t>
-  </si>
-  <si>
-    <t>TC_22</t>
-  </si>
-  <si>
-    <t>QBSB-Any____Qty-get pool-any-fixed-each</t>
-  </si>
-  <si>
-    <t>8906118412761 : 1, 8906118412556 : 2</t>
-  </si>
-  <si>
-    <t>TC_23</t>
-  </si>
-  <si>
-    <t>QBSB-Any____Qty-get pool-any-fixed-all</t>
-  </si>
-  <si>
-    <t>TC_24</t>
-  </si>
-  <si>
-    <t>QBSB-Any____Qty-get pool-spf-perc</t>
-  </si>
-  <si>
-    <t>TC_25</t>
-  </si>
-  <si>
-    <t>QBSB-Any qty-flat-rupees</t>
-  </si>
-  <si>
-    <t>TC_26</t>
-  </si>
-  <si>
-    <t>QBSB-Any qty-flat-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_27</t>
-  </si>
-  <si>
-    <t>QBSB-Any qty-flat-fixed-all</t>
-  </si>
-  <si>
-    <t>TC_28</t>
-  </si>
-  <si>
-    <t>QBSLB-flat-free</t>
-  </si>
-  <si>
-    <t>TC_29</t>
-  </si>
-  <si>
-    <t>QBSLB-flat-perc</t>
-  </si>
-  <si>
-    <t>8906118410781 : 4</t>
-  </si>
-  <si>
-    <t>TC_30</t>
-  </si>
-  <si>
-    <t>QBSlB-flat-rupee</t>
-  </si>
-  <si>
-    <t>TC_31</t>
-  </si>
-  <si>
-    <t>QBSlB-flat-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_32</t>
-  </si>
-  <si>
-    <t>QBSlB-flat-fixed-all</t>
-  </si>
-  <si>
-    <t>TC_33</t>
-  </si>
-  <si>
-    <t>QBSlB-Buy-100 disc</t>
-  </si>
-  <si>
-    <t>TC_34</t>
-  </si>
-  <si>
-    <t>QBSlB-Buy-perc</t>
-  </si>
-  <si>
-    <t>TC_35</t>
-  </si>
-  <si>
-    <t>QBSlB-Buy-rupee</t>
-  </si>
-  <si>
-    <t>TC_36</t>
-  </si>
-  <si>
-    <t>QBSlB-Buy-fixed-all</t>
-  </si>
-  <si>
-    <t>TC_37</t>
-  </si>
-  <si>
-    <t>QBSlB-Buy-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_38</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-100 % disc</t>
-  </si>
-  <si>
-    <t>TC_39</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-perc</t>
-  </si>
-  <si>
-    <t>TC_40</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-rupee</t>
-  </si>
-  <si>
-    <t>TC_41</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_42</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-fixed-all</t>
-  </si>
-  <si>
-    <t>8906118412761 : 4</t>
-  </si>
-  <si>
-    <t>TC_43</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-unit 100% disc</t>
-  </si>
-  <si>
-    <t>TC_44</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-unit perc</t>
-  </si>
-  <si>
-    <t>TC_45</t>
-  </si>
-  <si>
-    <t>TC_46</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-unit fixed-each</t>
-  </si>
-  <si>
-    <t>TC_47</t>
-  </si>
-  <si>
-    <t>QBSlB-Get-any-unit fixed-all</t>
-  </si>
-  <si>
-    <t>8906118412761 : 2</t>
-  </si>
-  <si>
-    <t>TC_48</t>
-  </si>
-  <si>
-    <t>VBSLB-flat -100% disc</t>
-  </si>
-  <si>
-    <t>TC_49</t>
-  </si>
-  <si>
-    <t>VBSLB-flat-percent</t>
-  </si>
-  <si>
-    <t>TC_50</t>
-  </si>
-  <si>
-    <t>VBSLB-flat-rupees</t>
-  </si>
-  <si>
-    <t>TC_51</t>
-  </si>
-  <si>
-    <t>VBSLB-flat-fixed each</t>
-  </si>
-  <si>
-    <t>TC_52</t>
-  </si>
-  <si>
-    <t>VBSLB-flat-fixed all</t>
-  </si>
-  <si>
-    <t>TC_53</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-100</t>
-  </si>
-  <si>
-    <t>TC_54</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-perc</t>
-  </si>
-  <si>
-    <t>TC_55</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-rupee</t>
-  </si>
-  <si>
-    <t>TC_56</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-fixed-each</t>
-  </si>
-  <si>
-    <t>TC_57</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-fixed-all </t>
-  </si>
-  <si>
-    <t>TC_58</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-unit- 100</t>
-  </si>
-  <si>
-    <t>TC_59</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-unit- perc</t>
-  </si>
-  <si>
-    <t>TC_60</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-unit- rupee</t>
-  </si>
-  <si>
-    <t>TC_61</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-unit- fixed-each</t>
-  </si>
-  <si>
-    <t>TC_62</t>
-  </si>
-  <si>
-    <t>VBSLB-Get-any-unit- fixed-all</t>
-  </si>
-  <si>
-    <t>307220524Dzl</t>
-  </si>
-  <si>
-    <t>PC_2</t>
-  </si>
-  <si>
-    <t>PC_3</t>
-  </si>
-  <si>
-    <t>PC_4</t>
-  </si>
-  <si>
-    <t>new_category_admin</t>
-  </si>
-  <si>
-    <t>Body Scrub</t>
-  </si>
-  <si>
-    <t>search_store</t>
-  </si>
-  <si>
-    <t> zwnishant@ekaani.com</t>
-  </si>
-  <si>
-    <t>PC_5</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>product_department</t>
-  </si>
-  <si>
-    <t>product_brand</t>
-  </si>
-  <si>
-    <t>product_category</t>
-  </si>
-  <si>
-    <t>product_description</t>
-  </si>
-  <si>
-    <t>product_mrp</t>
-  </si>
-  <si>
-    <t>product_rsp</t>
-  </si>
-  <si>
-    <t>product_special_price</t>
-  </si>
-  <si>
-    <t>uom</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>dummy</t>
-  </si>
-  <si>
-    <t>i9qa</t>
-  </si>
-  <si>
-    <t>ADFGHJKZXCVBN</t>
-  </si>
-  <si>
-    <t>Piece-Piece-1</t>
-  </si>
-  <si>
-    <t>123dummy</t>
-  </si>
-  <si>
-    <t>Plum Body</t>
-  </si>
-  <si>
-    <t>PC_6</t>
-  </si>
-  <si>
-    <t>Alexa67 : 2</t>
-  </si>
-  <si>
-    <t>PC_7</t>
-  </si>
-  <si>
-    <t>307260624P3E</t>
-  </si>
-  <si>
-    <t>userone_p1</t>
-  </si>
-  <si>
-    <t>price_book_name</t>
-  </si>
-  <si>
-    <t>Body Oil</t>
-  </si>
-  <si>
-    <t>PC_8</t>
-  </si>
-  <si>
-    <t>PC_9</t>
-  </si>
-  <si>
-    <t>PC_10</t>
-  </si>
-  <si>
     <t>Copy</t>
-  </si>
-  <si>
-    <t>Carry </t>
   </si>
   <si>
     <t>Carry bag</t>
@@ -625,21 +207,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,34 +227,15 @@
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="64"/>
@@ -682,9 +243,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -693,65 +254,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ConditionalFormatStyle" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
-  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
@@ -953,38 +491,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView topLeftCell="L45" view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R66" sqref="R66"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="J1">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.63" customHeight="true" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.9296875" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.390625" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="9" width="19.09765625" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.70703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.59765625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" customWidth="1"/>
-    <col min="15" max="17" width="19.09765625" customWidth="1"/>
-    <col min="18" max="19" width="29.45703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.20703125" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="18.9296875" customWidth="1"/>
+    <col min="2" max="2" width="23.57031" customWidth="1"/>
+    <col min="3" max="3" width="43.92969" customWidth="1"/>
+    <col min="4" max="4" width="20.17969" customWidth="1"/>
+    <col min="5" max="5" width="18.57031" customWidth="1"/>
+    <col min="6" max="6" width="18.39063" customWidth="1"/>
+    <col min="7" max="7" width="16.77734" customWidth="1"/>
+    <col min="8" max="9" width="19.09766" customWidth="1"/>
+    <col min="10" max="10" width="20.17969" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.70703" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.59766" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.14063" customWidth="1"/>
+    <col min="14" max="14" width="15.17969" customWidth="1"/>
+    <col min="15" max="17" width="19.09766" customWidth="1"/>
+    <col min="18" max="18" width="29.45703" style="1" customWidth="1"/>
+    <col min="19" max="19" width="29.45703" style="1" customWidth="1"/>
+    <col min="20" max="20" width="29.45703" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.20703" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="18.92969" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,60 +579,63 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T1" t="s">
-        <v>170</v>
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>194</v>
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="33.75" customHeight="1">
+    <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2">
         <v>123456</v>
@@ -1105,90 +647,93 @@
         <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
@@ -1200,90 +745,93 @@
         <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
@@ -1295,90 +843,93 @@
         <v>500</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>123456</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2">
         <v>123456</v>
@@ -1390,90 +941,93 @@
         <v>500</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="T5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s">
+        <v>41</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
@@ -1485,90 +1039,93 @@
         <v>500</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="T6" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="U6" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="W6" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="X6" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="Y6" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z6">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6">
         <v>500</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>250</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>100</v>
       </c>
-      <c r="AC6" t="s">
-        <v>186</v>
-      </c>
       <c r="AD6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
@@ -1580,90 +1137,93 @@
         <v>500</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="T7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" t="s">
+        <v>41</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -1675,90 +1235,93 @@
         <v>500</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="T8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" t="s">
+        <v>41</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>123456</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2">
         <v>123456</v>
@@ -1770,90 +1333,93 @@
         <v>500</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="T9" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" t="s">
+        <v>41</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
@@ -1865,90 +1431,93 @@
         <v>500</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="T10" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" t="s">
+        <v>41</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>123456</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
@@ -1960,73 +1529,76 @@
         <v>500</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>201</v>
+        <v>36</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="12.75"/>
@@ -2039,7 +1611,6 @@
     <row r="19" ht="12.75"/>
     <row r="20" ht="12.75"/>
     <row r="21" ht="12.75"/>
-    <row r="22"/>
     <row r="23" ht="12.75"/>
     <row r="24" ht="12.75"/>
     <row r="25" ht="12.75"/>
@@ -2058,8 +1629,6 @@
     <row r="38" ht="12.75"/>
     <row r="39" ht="12.75"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
+++ b/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>PC_9</t>
+  </si>
+  <si>
+    <t>30726062464i</t>
+  </si>
+  <si>
+    <t>userone_p8</t>
   </si>
   <si>
     <t>PC_10</t>
@@ -496,8 +502,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="J1">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -1410,7 +1416,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -1419,7 +1425,7 @@
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
@@ -1470,7 +1476,7 @@
         <v>41</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>36</v>
@@ -1505,10 +1511,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
@@ -1517,7 +1523,7 @@
         <v>123456</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
@@ -1562,13 +1568,13 @@
         <v>36</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>36</v>

--- a/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
+++ b/TestData/Web_POS/Billing/product_catalog_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>userone_p1</t>
+  </si>
+  <si>
+    <t>2000 : 1</t>
+  </si>
+  <si>
+    <t>500 : 1</t>
   </si>
   <si>
     <t>NULL</t>
@@ -261,8 +267,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
+    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -275,16 +298,19 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -503,7 +529,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G2" sqref="G2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -646,88 +672,88 @@
       <c r="F2" s="2">
         <v>123456</v>
       </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>500</v>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>33</v>
@@ -744,88 +770,88 @@
       <c r="F3" s="2">
         <v>123456</v>
       </c>
-      <c r="G3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>500</v>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -842,88 +868,88 @@
       <c r="F4" s="2">
         <v>123456</v>
       </c>
-      <c r="G4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>500</v>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -940,88 +966,88 @@
       <c r="F5" s="2">
         <v>123456</v>
       </c>
-      <c r="G5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>500</v>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -1038,65 +1064,65 @@
       <c r="F6" s="2">
         <v>123456</v>
       </c>
-      <c r="G6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>500</v>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA6">
         <v>500</v>
@@ -1108,18 +1134,18 @@
         <v>100</v>
       </c>
       <c r="AD6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AE6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>33</v>
@@ -1136,88 +1162,88 @@
       <c r="F7" s="2">
         <v>123456</v>
       </c>
-      <c r="G7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>500</v>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
@@ -1234,88 +1260,88 @@
       <c r="F8" s="2">
         <v>123456</v>
       </c>
-      <c r="G8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="1">
-        <v>500</v>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
@@ -1332,91 +1358,91 @@
       <c r="F9" s="2">
         <v>123456</v>
       </c>
-      <c r="G9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="1">
-        <v>500</v>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -1425,96 +1451,96 @@
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
       </c>
-      <c r="G10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>500</v>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
@@ -1523,88 +1549,88 @@
         <v>123456</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
       </c>
-      <c r="G11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="1">
-        <v>500</v>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="12.75"/>
